--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Xuất kho/Tháng 10/XKSX_.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Xuất kho/Tháng 10/XKSX_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Xuất kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BEAECF-90C3-4172-9A58-0564131A7DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16643F59-E259-4657-9CC0-7FE088C83864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="XuatKho_SX" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">XuatKho_SX!$A$2:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">XuatKho_SX!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -86,9 +86,6 @@
     <t>Công Ty Cổ Phần Công Nghệ Điện Tử &amp; Viễn  Thông Việt Nam</t>
   </si>
   <si>
-    <t>Địa chỉ: A46 TT19 Nguyễn Khuyến, Văn Quán, Hà Đông, Hà Nội</t>
-  </si>
-  <si>
     <t>Điện thoại: 0243 6400 767</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>TP. KTTH</t>
+  </si>
+  <si>
+    <t>Địa chỉ: A46 TT19 Nguyễn Khuyến, P. Văn Quán, Q. Hà Đông, TP. Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -537,6 +537,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,6 +561,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,12 +571,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -981,10 +981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1002,49 +1005,49 @@
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="55"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -1107,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>4</v>
@@ -1116,10 +1119,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1204,7 +1207,7 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="27" t="s">
@@ -1337,8 +1340,8 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D4:H4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="2" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>